--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t>BotEmailId</t>
   </si>
   <si>
-    <t>svc_rparobot2@orica.com</t>
-  </si>
-  <si>
     <t>Download_FolderPath</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>ZRPA_COM05</t>
+  </si>
+  <si>
+    <t>Process_Name</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -840,10 +840,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -865,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30">
@@ -909,32 +909,25 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B15" s="7"/>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1917,7 +1910,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2139,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -2178,200 +2170,200 @@
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
         <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
         <v>99</v>
-      </c>
-      <c r="B36" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
         <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
         <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3306,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3362,7 +3354,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3373,7 +3365,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3384,98 +3376,108 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
